--- a/public/files/Data_By_Towns_Index/Camden/Barrington Borough.xlsx
+++ b/public/files/Data_By_Towns_Index/Camden/Barrington Borough.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Owner Name</t>
@@ -452,11 +457,21 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Search</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,6 +493,12 @@
         <is>
           <t>Patel</t>
         </is>
+      </c>
+      <c r="F2" t="n">
+        <v>39.8693155</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-75.0525097</v>
       </c>
     </row>
   </sheetData>
